--- a/biology/Zoologie/Isohypsibiidae/Isohypsibiidae.xlsx
+++ b/biology/Zoologie/Isohypsibiidae/Isohypsibiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Isohypsibiidae sont une famille de tardigrades. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Degma, Bertolani et Guidetti, 2016[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Degma, Bertolani et Guidetti, 2016 :
 Apodibius Dastych, 1983
 Dastychius Pilato, 2013
 Doryphoribius Pilato, 1969
@@ -550,9 +564,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été révisée par Bertolani, Guidetti, Marchioro, Altiero, Rebecchi et Cesari en 2014[2] puis par Cesari, Vecchi, Palmer, Bertolani, Pilato, Rebecchi et Guidetti en 2016[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été révisée par Bertolani, Guidetti, Marchioro, Altiero, Rebecchi et Cesari en 2014 puis par Cesari, Vecchi, Palmer, Bertolani, Pilato, Rebecchi et Guidetti en 2016.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sands, McInnes, Marley, Goodall-Copestake, Convey &amp; Linse, 2008 : Phylum Tardigrada: an individual approach. Cladistics, no 24, p. 1-11.</t>
         </is>
